--- a/artfynd/A 57656-2018.xlsx
+++ b/artfynd/A 57656-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1970385</v>
+        <v>81541813</v>
       </c>
       <c r="B2" t="n">
-        <v>78569</v>
+        <v>89392</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,46 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Abborrsjöklippen, Ång</t>
+          <t>Fäbodbacken, Ång</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>623490.2110406316</v>
+        <v>623491.2200259296</v>
       </c>
       <c r="R2" t="n">
-        <v>6968781.502498983</v>
+        <v>6968706.059150764</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -759,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2011-05-09</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -769,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2011-05-09</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -785,36 +776,26 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Asp</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Torbjörn Engberg</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Torbjörn Engberg</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>81541816</v>
+        <v>81542303</v>
       </c>
       <c r="B3" t="n">
-        <v>89392</v>
+        <v>78527</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -823,38 +804,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>229497</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Flatberget, Ång</t>
+          <t>Fäbodbacken, Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>623462.9047973107</v>
+        <v>623504.1879650414</v>
       </c>
       <c r="R3" t="n">
-        <v>6968801.059687018</v>
+        <v>6968665.832673001</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -881,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2018-10-04</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -891,7 +872,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2018-10-04</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -923,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>81541971</v>
+        <v>81542228</v>
       </c>
       <c r="B4" t="n">
-        <v>78503</v>
+        <v>78569</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -935,38 +916,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Hoskostjärnen, Ång</t>
+          <t>Fäbodbacken, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>622958.118814126</v>
+        <v>623518.8226242235</v>
       </c>
       <c r="R4" t="n">
-        <v>6968238.136607219</v>
+        <v>6968702.981631638</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -993,7 +974,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1003,7 +984,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1035,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>81542301</v>
+        <v>81542338</v>
       </c>
       <c r="B5" t="n">
-        <v>78527</v>
+        <v>89406</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1047,38 +1028,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>229497</v>
+        <v>1204</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Hoskostjärnen, Ång</t>
+          <t>Fäbodbacken, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>623016.2172642223</v>
+        <v>623530.1559241731</v>
       </c>
       <c r="R5" t="n">
-        <v>6968338.224719995</v>
+        <v>6968706.153397112</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1105,7 +1086,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2018-11-01</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1115,7 +1096,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2018-11-01</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1147,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>81541808</v>
+        <v>81542337</v>
       </c>
       <c r="B6" t="n">
-        <v>89392</v>
+        <v>89406</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1163,34 +1144,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Hoskostjärnen, Ång</t>
+          <t>Fäbodbacken, Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>623017.1032351599</v>
+        <v>623416.983054872</v>
       </c>
       <c r="R6" t="n">
-        <v>6968326.820101542</v>
+        <v>6968597.129889949</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1217,7 +1198,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-04-02</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1227,7 +1208,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-04-02</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1259,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>81542511</v>
+        <v>81542495</v>
       </c>
       <c r="B7" t="n">
-        <v>78602</v>
+        <v>98520</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1275,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6463</v>
+        <v>222498</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1299,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>623509.7882596315</v>
+        <v>623546.0121826609</v>
       </c>
       <c r="R7" t="n">
-        <v>6968796.878509476</v>
+        <v>6968710.868022735</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1329,7 +1310,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2018-11-01</t>
+          <t>2018-11-29</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1339,7 +1320,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2018-11-01</t>
+          <t>2018-11-29</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1371,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>81541990</v>
+        <v>81541505</v>
       </c>
       <c r="B8" t="n">
-        <v>89403</v>
+        <v>77541</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1383,38 +1364,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1205</v>
+        <v>185</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Hoskostjärnen, Ång</t>
+          <t>Fäbodbacken, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>623073.1916601794</v>
+        <v>623515.0768827491</v>
       </c>
       <c r="R8" t="n">
-        <v>6968211.798596757</v>
+        <v>6968705.127871425</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1441,7 +1422,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2019-04-02</t>
+          <t>2018-11-01</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1451,7 +1432,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2019-04-02</t>
+          <t>2018-11-01</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1483,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>81542367</v>
+        <v>81541810</v>
       </c>
       <c r="B9" t="n">
-        <v>89410</v>
+        <v>89392</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1499,34 +1480,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Flatberget, Ång</t>
+          <t>Fäbodbacken, Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>623095.9318724571</v>
+        <v>623419.9686454313</v>
       </c>
       <c r="R9" t="n">
-        <v>6968667.864695237</v>
+        <v>6968590.837506507</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1553,7 +1534,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2018-12-04</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1563,7 +1544,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2018-12-04</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1595,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>81541813</v>
+        <v>1970385</v>
       </c>
       <c r="B10" t="n">
-        <v>89392</v>
+        <v>78569</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1611,37 +1592,46 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Fäbodbacken, Ång</t>
+          <t>Abborrsjöklippen, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>623491.2200259296</v>
+        <v>623490.2110406316</v>
       </c>
       <c r="R10" t="n">
-        <v>6968706.059150764</v>
+        <v>6968781.502498983</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1665,7 +1655,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2011-05-09</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1675,7 +1665,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2011-05-09</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1691,26 +1681,36 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Asp</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Torbjörn Engberg</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Torbjörn Engberg</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>81542303</v>
+        <v>81541816</v>
       </c>
       <c r="B11" t="n">
-        <v>78527</v>
+        <v>89392</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1719,38 +1719,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>229497</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Fäbodbacken, Ång</t>
+          <t>Flatberget, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>623504.1879650414</v>
+        <v>623462.9047973107</v>
       </c>
       <c r="R11" t="n">
-        <v>6968665.832673001</v>
+        <v>6968801.059687018</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2018-10-04</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2018-10-04</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1819,10 +1819,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>81542228</v>
+        <v>81541971</v>
       </c>
       <c r="B12" t="n">
-        <v>78569</v>
+        <v>78503</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1831,38 +1831,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Fäbodbacken, Ång</t>
+          <t>Hoskostjärnen, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>623518.8226242235</v>
+        <v>622958.118814126</v>
       </c>
       <c r="R12" t="n">
-        <v>6968702.981631638</v>
+        <v>6968238.136607219</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1931,7 +1931,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>81542304</v>
+        <v>81542301</v>
       </c>
       <c r="B13" t="n">
         <v>78527</v>
@@ -1967,14 +1967,14 @@
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Fäbodbacken, Ång</t>
+          <t>Hoskostjärnen, Ång</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>623521.8440280765</v>
+        <v>623016.2172642223</v>
       </c>
       <c r="R13" t="n">
-        <v>6968780.864219952</v>
+        <v>6968338.224719995</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2019-04-02</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2019-04-02</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2043,10 +2043,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>81542231</v>
+        <v>81541808</v>
       </c>
       <c r="B14" t="n">
-        <v>78569</v>
+        <v>89392</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2059,34 +2059,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Fäbodbacken, Ång</t>
+          <t>Hoskostjärnen, Ång</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>623481.0377588</v>
+        <v>623017.1032351599</v>
       </c>
       <c r="R14" t="n">
-        <v>6968793.965799806</v>
+        <v>6968326.820101542</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2155,10 +2155,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>81542054</v>
+        <v>81542511</v>
       </c>
       <c r="B15" t="n">
-        <v>89832</v>
+        <v>78602</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2167,25 +2167,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1209</v>
+        <v>6463</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2195,10 +2195,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>623488.0067416179</v>
+        <v>623509.7882596315</v>
       </c>
       <c r="R15" t="n">
-        <v>6968754.886838646</v>
+        <v>6968796.878509476</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2018-10-04</t>
+          <t>2018-11-01</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2018-10-04</t>
+          <t>2018-11-01</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2267,10 +2267,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>81542338</v>
+        <v>81541990</v>
       </c>
       <c r="B16" t="n">
-        <v>89406</v>
+        <v>89403</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2279,38 +2279,38 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Fäbodbacken, Ång</t>
+          <t>Hoskostjärnen, Ång</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>623530.1559241731</v>
+        <v>623073.1916601794</v>
       </c>
       <c r="R16" t="n">
-        <v>6968706.153397112</v>
+        <v>6968211.798596757</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2018-11-01</t>
+          <t>2019-04-02</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2018-11-01</t>
+          <t>2019-04-02</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2379,10 +2379,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>81542230</v>
+        <v>81542367</v>
       </c>
       <c r="B17" t="n">
-        <v>78569</v>
+        <v>89410</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2395,34 +2395,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Fäbodbacken, Ång</t>
+          <t>Flatberget, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>623509.8570902672</v>
+        <v>623095.9318724571</v>
       </c>
       <c r="R17" t="n">
-        <v>6968795.051279422</v>
+        <v>6968667.864695237</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2018-12-04</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2018-12-04</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2491,10 +2491,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>81542337</v>
+        <v>81542304</v>
       </c>
       <c r="B18" t="n">
-        <v>89406</v>
+        <v>78527</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2503,25 +2503,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1204</v>
+        <v>229497</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2531,10 +2531,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>623416.983054872</v>
+        <v>623521.8440280765</v>
       </c>
       <c r="R18" t="n">
-        <v>6968597.129889949</v>
+        <v>6968780.864219952</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2603,10 +2603,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>81541806</v>
+        <v>81542231</v>
       </c>
       <c r="B19" t="n">
-        <v>89392</v>
+        <v>78569</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2619,34 +2619,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Flatberget, Ång</t>
+          <t>Fäbodbacken, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>623101.9247914859</v>
+        <v>623481.0377588</v>
       </c>
       <c r="R19" t="n">
-        <v>6968679.068911348</v>
+        <v>6968793.965799806</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2715,10 +2715,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>81541815</v>
+        <v>81542054</v>
       </c>
       <c r="B20" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2727,25 +2727,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>623483.9827157601</v>
+        <v>623488.0067416179</v>
       </c>
       <c r="R20" t="n">
-        <v>6968740.09649922</v>
+        <v>6968754.886838646</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>81542227</v>
+        <v>81542230</v>
       </c>
       <c r="B21" t="n">
         <v>78569</v>
@@ -2863,14 +2863,14 @@
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Hoskostjärnen, Ång</t>
+          <t>Fäbodbacken, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>623021.2327649846</v>
+        <v>623509.8570902672</v>
       </c>
       <c r="R21" t="n">
-        <v>6968338.870379948</v>
+        <v>6968795.051279422</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2939,7 +2939,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>81541807</v>
+        <v>81541806</v>
       </c>
       <c r="B22" t="n">
         <v>89392</v>
@@ -2979,10 +2979,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>623076.7951309065</v>
+        <v>623101.9247914859</v>
       </c>
       <c r="R22" t="n">
-        <v>6968494.218727836</v>
+        <v>6968679.068911348</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3051,10 +3051,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>81542495</v>
+        <v>81541815</v>
       </c>
       <c r="B23" t="n">
-        <v>98520</v>
+        <v>89392</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3063,25 +3063,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>222498</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3091,10 +3091,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>623546.0121826609</v>
+        <v>623483.9827157601</v>
       </c>
       <c r="R23" t="n">
-        <v>6968710.868022735</v>
+        <v>6968740.09649922</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2018-11-29</t>
+          <t>2018-10-04</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2018-11-29</t>
+          <t>2018-10-04</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3163,10 +3163,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>81542051</v>
+        <v>81542227</v>
       </c>
       <c r="B24" t="n">
-        <v>89832</v>
+        <v>78569</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3175,25 +3175,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3203,10 +3203,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>623082.8808742531</v>
+        <v>623021.2327649846</v>
       </c>
       <c r="R24" t="n">
-        <v>6968258.830119273</v>
+        <v>6968338.870379948</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2018-10-04</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2018-10-04</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3275,10 +3275,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>81542050</v>
+        <v>81541807</v>
       </c>
       <c r="B25" t="n">
-        <v>89832</v>
+        <v>89392</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3287,38 +3287,38 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Hoskostjärnen, Ång</t>
+          <t>Flatberget, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>623087.9253084274</v>
+        <v>623076.7951309065</v>
       </c>
       <c r="R25" t="n">
-        <v>6968270.915080832</v>
+        <v>6968494.218727836</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3387,10 +3387,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>81542225</v>
+        <v>81542051</v>
       </c>
       <c r="B26" t="n">
-        <v>78569</v>
+        <v>89832</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3399,25 +3399,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>1209</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3427,10 +3427,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>622976.2314184781</v>
+        <v>623082.8808742531</v>
       </c>
       <c r="R26" t="n">
-        <v>6968243.848544322</v>
+        <v>6968258.830119273</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2018-10-04</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2018-10-04</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3499,10 +3499,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>81542460</v>
+        <v>81542050</v>
       </c>
       <c r="B27" t="n">
-        <v>85703</v>
+        <v>89832</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3511,25 +3511,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>510</v>
+        <v>1209</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3539,10 +3539,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>623048.1563054883</v>
+        <v>623087.9253084274</v>
       </c>
       <c r="R27" t="n">
-        <v>6968305.109287062</v>
+        <v>6968270.915080832</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2018-11-29</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3579,7 +3579,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2018-11-29</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3611,10 +3611,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>81541805</v>
+        <v>81542225</v>
       </c>
       <c r="B28" t="n">
-        <v>89392</v>
+        <v>78569</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3627,34 +3627,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Flatberget, Ång</t>
+          <t>Hoskostjärnen, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>623259.1462826001</v>
+        <v>622976.2314184781</v>
       </c>
       <c r="R28" t="n">
-        <v>6968774.180383419</v>
+        <v>6968243.848544322</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -3723,10 +3723,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>81541809</v>
+        <v>81542460</v>
       </c>
       <c r="B29" t="n">
-        <v>89392</v>
+        <v>85703</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3739,21 +3739,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1202</v>
+        <v>510</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>623074.0101555353</v>
+        <v>623048.1563054883</v>
       </c>
       <c r="R29" t="n">
-        <v>6968238.82356375</v>
+        <v>6968305.109287062</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2018-11-29</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2018-11-29</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -3835,10 +3835,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>81541505</v>
+        <v>81541805</v>
       </c>
       <c r="B30" t="n">
-        <v>77541</v>
+        <v>89392</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3851,34 +3851,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>185</v>
+        <v>1202</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Fäbodbacken, Ång</t>
+          <t>Flatberget, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>623515.0768827491</v>
+        <v>623259.1462826001</v>
       </c>
       <c r="R30" t="n">
-        <v>6968705.127871425</v>
+        <v>6968774.180383419</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2018-11-01</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -3915,7 +3915,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2018-11-01</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -3947,10 +3947,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>81541970</v>
+        <v>81541809</v>
       </c>
       <c r="B31" t="n">
-        <v>78503</v>
+        <v>89392</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3959,25 +3959,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6456</v>
+        <v>1202</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3987,10 +3987,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>623014.0071433077</v>
+        <v>623074.0101555353</v>
       </c>
       <c r="R31" t="n">
-        <v>6968275.004371893</v>
+        <v>6968238.82356375</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4059,10 +4059,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>81542224</v>
+        <v>81541970</v>
       </c>
       <c r="B32" t="n">
-        <v>78569</v>
+        <v>78503</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4071,25 +4071,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4099,10 +4099,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>623006.1710679337</v>
+        <v>623014.0071433077</v>
       </c>
       <c r="R32" t="n">
-        <v>6968251.834264401</v>
+        <v>6968275.004371893</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4171,10 +4171,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>81541810</v>
+        <v>81542224</v>
       </c>
       <c r="B33" t="n">
-        <v>89392</v>
+        <v>78569</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4187,34 +4187,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Fäbodbacken, Ång</t>
+          <t>Hoskostjärnen, Ång</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>623419.9686454313</v>
+        <v>623006.1710679337</v>
       </c>
       <c r="R33" t="n">
-        <v>6968590.837506507</v>
+        <v>6968251.834264401</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">

--- a/artfynd/A 57656-2018.xlsx
+++ b/artfynd/A 57656-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>81541813</v>
+        <v>1970385</v>
       </c>
       <c r="B2" t="n">
-        <v>89392</v>
+        <v>78569</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,46 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Fäbodbacken, Ång</t>
+          <t>Abborrsjöklippen, Ång</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>623491.2200259296</v>
+        <v>623490.2110406316</v>
       </c>
       <c r="R2" t="n">
-        <v>6968706.059150764</v>
+        <v>6968781.502498983</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +759,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2011-05-09</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +769,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2011-05-09</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -776,26 +785,36 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Asp</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Torbjörn Engberg</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Torbjörn Engberg</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>81542303</v>
+        <v>81541816</v>
       </c>
       <c r="B3" t="n">
-        <v>78527</v>
+        <v>89392</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,38 +823,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>229497</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Fäbodbacken, Ång</t>
+          <t>Flatberget, Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>623504.1879650414</v>
+        <v>623462.9047973107</v>
       </c>
       <c r="R3" t="n">
-        <v>6968665.832673001</v>
+        <v>6968801.059687018</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -862,7 +881,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2018-10-04</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,7 +891,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2018-10-04</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -904,10 +923,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>81542228</v>
+        <v>81541971</v>
       </c>
       <c r="B4" t="n">
-        <v>78569</v>
+        <v>78503</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,38 +935,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Fäbodbacken, Ång</t>
+          <t>Hoskostjärnen, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>623518.8226242235</v>
+        <v>622958.118814126</v>
       </c>
       <c r="R4" t="n">
-        <v>6968702.981631638</v>
+        <v>6968238.136607219</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -974,7 +993,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -984,7 +1003,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1016,10 +1035,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>81542338</v>
+        <v>81542301</v>
       </c>
       <c r="B5" t="n">
-        <v>89406</v>
+        <v>78527</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,38 +1047,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1204</v>
+        <v>229497</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Fäbodbacken, Ång</t>
+          <t>Hoskostjärnen, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>623530.1559241731</v>
+        <v>623016.2172642223</v>
       </c>
       <c r="R5" t="n">
-        <v>6968706.153397112</v>
+        <v>6968338.224719995</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1086,7 +1105,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2018-11-01</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1096,7 +1115,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2018-11-01</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1128,10 +1147,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>81542337</v>
+        <v>81541808</v>
       </c>
       <c r="B6" t="n">
-        <v>89406</v>
+        <v>89392</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,34 +1163,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Fäbodbacken, Ång</t>
+          <t>Hoskostjärnen, Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>623416.983054872</v>
+        <v>623017.1032351599</v>
       </c>
       <c r="R6" t="n">
-        <v>6968597.129889949</v>
+        <v>6968326.820101542</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1198,7 +1217,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2019-04-02</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1208,7 +1227,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2019-04-02</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1240,10 +1259,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>81542495</v>
+        <v>81542511</v>
       </c>
       <c r="B7" t="n">
-        <v>98520</v>
+        <v>78602</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1275,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>222498</v>
+        <v>6463</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1299,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>623546.0121826609</v>
+        <v>623509.7882596315</v>
       </c>
       <c r="R7" t="n">
-        <v>6968710.868022735</v>
+        <v>6968796.878509476</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1310,7 +1329,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2018-11-29</t>
+          <t>2018-11-01</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1320,7 +1339,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2018-11-29</t>
+          <t>2018-11-01</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1352,10 +1371,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>81541505</v>
+        <v>81541990</v>
       </c>
       <c r="B8" t="n">
-        <v>77541</v>
+        <v>89403</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,38 +1383,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>185</v>
+        <v>1205</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Fäbodbacken, Ång</t>
+          <t>Hoskostjärnen, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>623515.0768827491</v>
+        <v>623073.1916601794</v>
       </c>
       <c r="R8" t="n">
-        <v>6968705.127871425</v>
+        <v>6968211.798596757</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1422,7 +1441,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2018-11-01</t>
+          <t>2019-04-02</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1432,7 +1451,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2018-11-01</t>
+          <t>2019-04-02</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1464,10 +1483,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>81541810</v>
+        <v>81542367</v>
       </c>
       <c r="B9" t="n">
-        <v>89392</v>
+        <v>89410</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,34 +1499,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Fäbodbacken, Ång</t>
+          <t>Flatberget, Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>623419.9686454313</v>
+        <v>623095.9318724571</v>
       </c>
       <c r="R9" t="n">
-        <v>6968590.837506507</v>
+        <v>6968667.864695237</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1534,7 +1553,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2018-12-04</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1544,7 +1563,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2018-12-04</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1576,10 +1595,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1970385</v>
+        <v>81541813</v>
       </c>
       <c r="B10" t="n">
-        <v>78569</v>
+        <v>89392</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,46 +1611,37 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Abborrsjöklippen, Ång</t>
+          <t>Fäbodbacken, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>623490.2110406316</v>
+        <v>623491.2200259296</v>
       </c>
       <c r="R10" t="n">
-        <v>6968781.502498983</v>
+        <v>6968706.059150764</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1655,7 +1665,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2011-05-09</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1665,7 +1675,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2011-05-09</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1681,36 +1691,26 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>Barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Asp</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Torbjörn Engberg</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Torbjörn Engberg</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>81541816</v>
+        <v>81542303</v>
       </c>
       <c r="B11" t="n">
-        <v>89392</v>
+        <v>78527</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1719,38 +1719,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>229497</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Flatberget, Ång</t>
+          <t>Fäbodbacken, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>623462.9047973107</v>
+        <v>623504.1879650414</v>
       </c>
       <c r="R11" t="n">
-        <v>6968801.059687018</v>
+        <v>6968665.832673001</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2018-10-04</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2018-10-04</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1819,10 +1819,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>81541971</v>
+        <v>81542228</v>
       </c>
       <c r="B12" t="n">
-        <v>78503</v>
+        <v>78569</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1831,38 +1831,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Hoskostjärnen, Ång</t>
+          <t>Fäbodbacken, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>622958.118814126</v>
+        <v>623518.8226242235</v>
       </c>
       <c r="R12" t="n">
-        <v>6968238.136607219</v>
+        <v>6968702.981631638</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1931,7 +1931,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>81542301</v>
+        <v>81542304</v>
       </c>
       <c r="B13" t="n">
         <v>78527</v>
@@ -1967,14 +1967,14 @@
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Hoskostjärnen, Ång</t>
+          <t>Fäbodbacken, Ång</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>623016.2172642223</v>
+        <v>623521.8440280765</v>
       </c>
       <c r="R13" t="n">
-        <v>6968338.224719995</v>
+        <v>6968780.864219952</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-04-02</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-04-02</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2043,10 +2043,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>81541808</v>
+        <v>81542231</v>
       </c>
       <c r="B14" t="n">
-        <v>89392</v>
+        <v>78569</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2059,34 +2059,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Hoskostjärnen, Ång</t>
+          <t>Fäbodbacken, Ång</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>623017.1032351599</v>
+        <v>623481.0377588</v>
       </c>
       <c r="R14" t="n">
-        <v>6968326.820101542</v>
+        <v>6968793.965799806</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2155,10 +2155,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>81542511</v>
+        <v>81542054</v>
       </c>
       <c r="B15" t="n">
-        <v>78602</v>
+        <v>89832</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2167,25 +2167,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6463</v>
+        <v>1209</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2195,10 +2195,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>623509.7882596315</v>
+        <v>623488.0067416179</v>
       </c>
       <c r="R15" t="n">
-        <v>6968796.878509476</v>
+        <v>6968754.886838646</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2018-11-01</t>
+          <t>2018-10-04</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2018-11-01</t>
+          <t>2018-10-04</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2267,10 +2267,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>81541990</v>
+        <v>81542338</v>
       </c>
       <c r="B16" t="n">
-        <v>89403</v>
+        <v>89406</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2279,38 +2279,38 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Hoskostjärnen, Ång</t>
+          <t>Fäbodbacken, Ång</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>623073.1916601794</v>
+        <v>623530.1559241731</v>
       </c>
       <c r="R16" t="n">
-        <v>6968211.798596757</v>
+        <v>6968706.153397112</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2019-04-02</t>
+          <t>2018-11-01</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2019-04-02</t>
+          <t>2018-11-01</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2379,10 +2379,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>81542367</v>
+        <v>81542230</v>
       </c>
       <c r="B17" t="n">
-        <v>89410</v>
+        <v>78569</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2395,34 +2395,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Flatberget, Ång</t>
+          <t>Fäbodbacken, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>623095.9318724571</v>
+        <v>623509.8570902672</v>
       </c>
       <c r="R17" t="n">
-        <v>6968667.864695237</v>
+        <v>6968795.051279422</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2018-12-04</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2018-12-04</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2491,10 +2491,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>81542304</v>
+        <v>81542337</v>
       </c>
       <c r="B18" t="n">
-        <v>78527</v>
+        <v>89406</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2503,25 +2503,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>229497</v>
+        <v>1204</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2531,10 +2531,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>623521.8440280765</v>
+        <v>623416.983054872</v>
       </c>
       <c r="R18" t="n">
-        <v>6968780.864219952</v>
+        <v>6968597.129889949</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2603,10 +2603,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>81542231</v>
+        <v>81541806</v>
       </c>
       <c r="B19" t="n">
-        <v>78569</v>
+        <v>89392</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2619,34 +2619,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Fäbodbacken, Ång</t>
+          <t>Flatberget, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>623481.0377588</v>
+        <v>623101.9247914859</v>
       </c>
       <c r="R19" t="n">
-        <v>6968793.965799806</v>
+        <v>6968679.068911348</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2715,10 +2715,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>81542054</v>
+        <v>81541815</v>
       </c>
       <c r="B20" t="n">
-        <v>89832</v>
+        <v>89392</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2727,25 +2727,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>623488.0067416179</v>
+        <v>623483.9827157601</v>
       </c>
       <c r="R20" t="n">
-        <v>6968754.886838646</v>
+        <v>6968740.09649922</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>81542230</v>
+        <v>81542227</v>
       </c>
       <c r="B21" t="n">
         <v>78569</v>
@@ -2863,14 +2863,14 @@
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Fäbodbacken, Ång</t>
+          <t>Hoskostjärnen, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>623509.8570902672</v>
+        <v>623021.2327649846</v>
       </c>
       <c r="R21" t="n">
-        <v>6968795.051279422</v>
+        <v>6968338.870379948</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2939,7 +2939,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>81541806</v>
+        <v>81541807</v>
       </c>
       <c r="B22" t="n">
         <v>89392</v>
@@ -2979,10 +2979,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>623101.9247914859</v>
+        <v>623076.7951309065</v>
       </c>
       <c r="R22" t="n">
-        <v>6968679.068911348</v>
+        <v>6968494.218727836</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3051,10 +3051,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>81541815</v>
+        <v>81542495</v>
       </c>
       <c r="B23" t="n">
-        <v>89392</v>
+        <v>98520</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3063,25 +3063,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3091,10 +3091,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>623483.9827157601</v>
+        <v>623546.0121826609</v>
       </c>
       <c r="R23" t="n">
-        <v>6968740.09649922</v>
+        <v>6968710.868022735</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2018-10-04</t>
+          <t>2018-11-29</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2018-10-04</t>
+          <t>2018-11-29</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3163,10 +3163,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>81542227</v>
+        <v>81542051</v>
       </c>
       <c r="B24" t="n">
-        <v>78569</v>
+        <v>89832</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3175,25 +3175,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6458</v>
+        <v>1209</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3203,10 +3203,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>623021.2327649846</v>
+        <v>623082.8808742531</v>
       </c>
       <c r="R24" t="n">
-        <v>6968338.870379948</v>
+        <v>6968258.830119273</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2018-10-04</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2018-10-04</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3275,10 +3275,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>81541807</v>
+        <v>81542050</v>
       </c>
       <c r="B25" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3287,38 +3287,38 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Flatberget, Ång</t>
+          <t>Hoskostjärnen, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>623076.7951309065</v>
+        <v>623087.9253084274</v>
       </c>
       <c r="R25" t="n">
-        <v>6968494.218727836</v>
+        <v>6968270.915080832</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3387,10 +3387,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>81542051</v>
+        <v>81542225</v>
       </c>
       <c r="B26" t="n">
-        <v>89832</v>
+        <v>78569</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3399,25 +3399,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3427,10 +3427,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>623082.8808742531</v>
+        <v>622976.2314184781</v>
       </c>
       <c r="R26" t="n">
-        <v>6968258.830119273</v>
+        <v>6968243.848544322</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2018-10-04</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2018-10-04</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3499,10 +3499,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>81542050</v>
+        <v>81542460</v>
       </c>
       <c r="B27" t="n">
-        <v>89832</v>
+        <v>85703</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3511,25 +3511,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1209</v>
+        <v>510</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3539,10 +3539,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>623087.9253084274</v>
+        <v>623048.1563054883</v>
       </c>
       <c r="R27" t="n">
-        <v>6968270.915080832</v>
+        <v>6968305.109287062</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2018-11-29</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3579,7 +3579,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2018-11-29</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3611,10 +3611,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>81542225</v>
+        <v>81541805</v>
       </c>
       <c r="B28" t="n">
-        <v>78569</v>
+        <v>89392</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3627,34 +3627,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Hoskostjärnen, Ång</t>
+          <t>Flatberget, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>622976.2314184781</v>
+        <v>623259.1462826001</v>
       </c>
       <c r="R28" t="n">
-        <v>6968243.848544322</v>
+        <v>6968774.180383419</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -3723,10 +3723,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>81542460</v>
+        <v>81541809</v>
       </c>
       <c r="B29" t="n">
-        <v>85703</v>
+        <v>89392</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3739,21 +3739,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>510</v>
+        <v>1202</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>623048.1563054883</v>
+        <v>623074.0101555353</v>
       </c>
       <c r="R29" t="n">
-        <v>6968305.109287062</v>
+        <v>6968238.82356375</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2018-11-29</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2018-11-29</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -3835,10 +3835,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>81541805</v>
+        <v>81541505</v>
       </c>
       <c r="B30" t="n">
-        <v>89392</v>
+        <v>77541</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3851,34 +3851,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1202</v>
+        <v>185</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Flatberget, Ång</t>
+          <t>Fäbodbacken, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>623259.1462826001</v>
+        <v>623515.0768827491</v>
       </c>
       <c r="R30" t="n">
-        <v>6968774.180383419</v>
+        <v>6968705.127871425</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2018-11-01</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -3915,7 +3915,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2018-11-01</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -3947,10 +3947,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>81541809</v>
+        <v>81541970</v>
       </c>
       <c r="B31" t="n">
-        <v>89392</v>
+        <v>78503</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3959,25 +3959,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1202</v>
+        <v>6456</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3987,10 +3987,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>623074.0101555353</v>
+        <v>623014.0071433077</v>
       </c>
       <c r="R31" t="n">
-        <v>6968238.82356375</v>
+        <v>6968275.004371893</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2019-11-05</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4059,10 +4059,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>81541970</v>
+        <v>81542224</v>
       </c>
       <c r="B32" t="n">
-        <v>78503</v>
+        <v>78569</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4071,25 +4071,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4099,10 +4099,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>623014.0071433077</v>
+        <v>623006.1710679337</v>
       </c>
       <c r="R32" t="n">
-        <v>6968275.004371893</v>
+        <v>6968251.834264401</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4139,7 +4139,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4171,10 +4171,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>81542224</v>
+        <v>81541810</v>
       </c>
       <c r="B33" t="n">
-        <v>78569</v>
+        <v>89392</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4187,34 +4187,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Hoskostjärnen, Ång</t>
+          <t>Fäbodbacken, Ång</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>623006.1710679337</v>
+        <v>623419.9686454313</v>
       </c>
       <c r="R33" t="n">
-        <v>6968251.834264401</v>
+        <v>6968590.837506507</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-05</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
